--- a/code_tables.xlsx
+++ b/code_tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craig\source\repos\civilfiling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B2E3A4-FBBD-4D85-B37A-8F3B14455B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" tabRatio="782"/>
+    <workbookView xWindow="3195" yWindow="1733" windowWidth="25440" windowHeight="13079" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="County" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="1055">
   <si>
     <t>County Code</t>
   </si>
@@ -3197,7 +3203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3558,20 +3564,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.53125" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3579,15 +3585,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3603,7 +3672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3627,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3635,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3643,7 +3712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3651,7 +3720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3667,7 +3736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3675,7 +3744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3683,7 +3752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3699,7 +3768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3707,7 +3776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3715,7 +3784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3723,7 +3792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3731,7 +3800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3739,7 +3808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3753,20 +3822,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -3774,7 +3843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>28</v>
       </c>
@@ -3782,7 +3851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>175</v>
       </c>
@@ -3790,7 +3859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>32</v>
       </c>
@@ -3798,7 +3867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>37</v>
       </c>
@@ -3806,7 +3875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>41</v>
       </c>
@@ -3814,7 +3883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>33</v>
       </c>
@@ -3829,20 +3898,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -3850,7 +3919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -3858,7 +3927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -3866,7 +3935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -3874,7 +3943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -3882,7 +3951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
@@ -3890,7 +3959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -3898,7 +3967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -3912,20 +3981,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" customWidth="1"/>
+    <col min="2" max="2" width="57.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +4002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -3941,7 +4010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -3949,7 +4018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -3957,7 +4026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -3965,7 +4034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -3973,7 +4042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3981,7 +4050,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
@@ -3989,7 +4058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,7 +4066,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -4005,7 +4074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -4013,7 +4082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +4090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -4029,7 +4098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -4037,7 +4106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
@@ -4045,7 +4114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -4053,7 +4122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -4061,7 +4130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -4069,7 +4138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -4077,7 +4146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
@@ -4085,7 +4154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -4093,7 +4162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -4101,7 +4170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
@@ -4109,7 +4178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -4117,7 +4186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -4125,7 +4194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4202,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -4141,7 +4210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -4149,7 +4218,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -4157,7 +4226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -4165,7 +4234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
@@ -4173,7 +4242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -4181,7 +4250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -4189,7 +4258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -4197,7 +4266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -4205,7 +4274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
@@ -4213,7 +4282,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
@@ -4221,7 +4290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -4229,7 +4298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>140</v>
       </c>
@@ -4237,7 +4306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
@@ -4245,7 +4314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>144</v>
       </c>
@@ -4253,7 +4322,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -4261,7 +4330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
@@ -4269,7 +4338,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>150</v>
       </c>
@@ -4277,7 +4346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>152</v>
       </c>
@@ -4285,7 +4354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>154</v>
       </c>
@@ -4293,7 +4362,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>156</v>
       </c>
@@ -4301,7 +4370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
@@ -4309,7 +4378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>160</v>
       </c>
@@ -4317,7 +4386,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -4325,7 +4394,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>164</v>
       </c>
@@ -4333,7 +4402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
@@ -4341,7 +4410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>168</v>
       </c>
@@ -4349,7 +4418,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
@@ -4357,7 +4426,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
@@ -4365,7 +4434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>174</v>
       </c>
@@ -4373,7 +4442,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -4381,7 +4450,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
@@ -4389,7 +4458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>180</v>
       </c>
@@ -4397,7 +4466,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -4405,7 +4474,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4413,7 +4482,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -4427,20 +4496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -4448,7 +4517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>188</v>
       </c>
@@ -4456,7 +4525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -4464,7 +4533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -4472,7 +4541,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -4480,7 +4549,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>196</v>
       </c>
@@ -4488,7 +4557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>198</v>
       </c>
@@ -4496,7 +4565,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>200</v>
       </c>
@@ -4504,7 +4573,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>202</v>
       </c>
@@ -4518,20 +4587,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="56.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="56.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -4539,7 +4608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>204</v>
       </c>
@@ -4547,7 +4616,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>206</v>
       </c>
@@ -4555,7 +4624,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -4563,7 +4632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>210</v>
       </c>
@@ -4571,7 +4640,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>212</v>
       </c>
@@ -4579,7 +4648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -4587,7 +4656,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>216</v>
       </c>
@@ -4595,7 +4664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>218</v>
       </c>
@@ -4603,7 +4672,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>220</v>
       </c>
@@ -4611,7 +4680,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>222</v>
       </c>
@@ -4619,7 +4688,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>224</v>
       </c>
@@ -4627,7 +4696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>226</v>
       </c>
@@ -4635,7 +4704,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>228</v>
       </c>
@@ -4643,7 +4712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>230</v>
       </c>
@@ -4651,7 +4720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>232</v>
       </c>
@@ -4659,7 +4728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>234</v>
       </c>
@@ -4673,20 +4742,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -4694,7 +4763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>236</v>
       </c>
@@ -4702,7 +4771,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>238</v>
       </c>
@@ -4710,7 +4779,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>240</v>
       </c>
@@ -4718,7 +4787,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>242</v>
       </c>
@@ -4726,7 +4795,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>244</v>
       </c>
@@ -4740,19 +4809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="75.26953125" customWidth="1"/>
+    <col min="2" max="2" width="75.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -4760,7 +4829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -4768,7 +4837,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>247</v>
       </c>
@@ -4776,7 +4845,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>249</v>
       </c>
@@ -4784,7 +4853,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>251</v>
       </c>
@@ -4798,20 +4867,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B403"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
       <selection activeCell="F408" sqref="F408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="64.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -4819,7 +4888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>253</v>
       </c>
@@ -4827,7 +4896,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>254</v>
       </c>
@@ -4835,7 +4904,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>255</v>
       </c>
@@ -4843,7 +4912,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>256</v>
       </c>
@@ -4851,7 +4920,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>257</v>
       </c>
@@ -4859,7 +4928,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>258</v>
       </c>
@@ -4867,7 +4936,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>259</v>
       </c>
@@ -4875,7 +4944,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>260</v>
       </c>
@@ -4883,7 +4952,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>261</v>
       </c>
@@ -4891,7 +4960,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>262</v>
       </c>
@@ -4899,7 +4968,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
@@ -4907,7 +4976,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>264</v>
       </c>
@@ -4915,7 +4984,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>265</v>
       </c>
@@ -4923,7 +4992,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>266</v>
       </c>
@@ -4931,7 +5000,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>267</v>
       </c>
@@ -4939,7 +5008,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>268</v>
       </c>
@@ -4947,7 +5016,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>269</v>
       </c>
@@ -4955,7 +5024,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>270</v>
       </c>
@@ -4963,7 +5032,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>271</v>
       </c>
@@ -4971,7 +5040,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>272</v>
       </c>
@@ -4979,7 +5048,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>273</v>
       </c>
@@ -4987,7 +5056,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>274</v>
       </c>
@@ -4995,7 +5064,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>275</v>
       </c>
@@ -5003,7 +5072,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>276</v>
       </c>
@@ -5011,7 +5080,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>277</v>
       </c>
@@ -5019,7 +5088,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>278</v>
       </c>
@@ -5027,7 +5096,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>279</v>
       </c>
@@ -5035,7 +5104,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>280</v>
       </c>
@@ -5043,7 +5112,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>281</v>
       </c>
@@ -5051,7 +5120,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>282</v>
       </c>
@@ -5059,7 +5128,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>283</v>
       </c>
@@ -5067,7 +5136,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>284</v>
       </c>
@@ -5075,7 +5144,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>285</v>
       </c>
@@ -5083,7 +5152,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>286</v>
       </c>
@@ -5091,7 +5160,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>287</v>
       </c>
@@ -5099,7 +5168,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>288</v>
       </c>
@@ -5107,7 +5176,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>289</v>
       </c>
@@ -5115,7 +5184,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>290</v>
       </c>
@@ -5123,7 +5192,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>291</v>
       </c>
@@ -5131,7 +5200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>292</v>
       </c>
@@ -5139,7 +5208,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>293</v>
       </c>
@@ -5147,7 +5216,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>294</v>
       </c>
@@ -5155,7 +5224,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>295</v>
       </c>
@@ -5163,7 +5232,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>296</v>
       </c>
@@ -5171,7 +5240,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>297</v>
       </c>
@@ -5179,7 +5248,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>298</v>
       </c>
@@ -5187,7 +5256,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>299</v>
       </c>
@@ -5195,7 +5264,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>300</v>
       </c>
@@ -5203,7 +5272,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>301</v>
       </c>
@@ -5211,7 +5280,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>302</v>
       </c>
@@ -5219,7 +5288,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>303</v>
       </c>
@@ -5227,7 +5296,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>304</v>
       </c>
@@ -5235,7 +5304,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>305</v>
       </c>
@@ -5243,7 +5312,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>306</v>
       </c>
@@ -5251,7 +5320,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>307</v>
       </c>
@@ -5259,7 +5328,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>308</v>
       </c>
@@ -5267,7 +5336,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>309</v>
       </c>
@@ -5275,7 +5344,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>310</v>
       </c>
@@ -5283,7 +5352,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>311</v>
       </c>
@@ -5291,7 +5360,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>312</v>
       </c>
@@ -5299,7 +5368,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>313</v>
       </c>
@@ -5307,7 +5376,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>314</v>
       </c>
@@ -5315,7 +5384,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>315</v>
       </c>
@@ -5323,7 +5392,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>316</v>
       </c>
@@ -5331,7 +5400,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>317</v>
       </c>
@@ -5339,7 +5408,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>318</v>
       </c>
@@ -5347,7 +5416,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>319</v>
       </c>
@@ -5355,7 +5424,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>320</v>
       </c>
@@ -5363,7 +5432,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>321</v>
       </c>
@@ -5371,7 +5440,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>322</v>
       </c>
@@ -5379,7 +5448,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>323</v>
       </c>
@@ -5387,7 +5456,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>324</v>
       </c>
@@ -5395,7 +5464,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>325</v>
       </c>
@@ -5403,7 +5472,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>326</v>
       </c>
@@ -5411,7 +5480,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>327</v>
       </c>
@@ -5419,7 +5488,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>328</v>
       </c>
@@ -5427,7 +5496,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
         <v>329</v>
       </c>
@@ -5435,7 +5504,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>330</v>
       </c>
@@ -5443,7 +5512,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>331</v>
       </c>
@@ -5451,7 +5520,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>332</v>
       </c>
@@ -5459,7 +5528,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>333</v>
       </c>
@@ -5467,7 +5536,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>334</v>
       </c>
@@ -5475,7 +5544,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>335</v>
       </c>
@@ -5483,7 +5552,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>336</v>
       </c>
@@ -5491,7 +5560,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>337</v>
       </c>
@@ -5499,7 +5568,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>338</v>
       </c>
@@ -5507,7 +5576,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
         <v>339</v>
       </c>
@@ -5515,7 +5584,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>340</v>
       </c>
@@ -5523,7 +5592,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
         <v>341</v>
       </c>
@@ -5531,7 +5600,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>342</v>
       </c>
@@ -5539,7 +5608,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="4" t="s">
         <v>343</v>
       </c>
@@ -5547,7 +5616,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>344</v>
       </c>
@@ -5555,7 +5624,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
         <v>345</v>
       </c>
@@ -5563,7 +5632,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>346</v>
       </c>
@@ -5571,7 +5640,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
         <v>347</v>
       </c>
@@ -5579,7 +5648,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>348</v>
       </c>
@@ -5587,7 +5656,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>349</v>
       </c>
@@ -5595,7 +5664,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>350</v>
       </c>
@@ -5603,7 +5672,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
         <v>351</v>
       </c>
@@ -5611,7 +5680,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>352</v>
       </c>
@@ -5619,7 +5688,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>353</v>
       </c>
@@ -5627,7 +5696,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>354</v>
       </c>
@@ -5635,7 +5704,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
         <v>355</v>
       </c>
@@ -5643,7 +5712,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>356</v>
       </c>
@@ -5651,7 +5720,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
         <v>357</v>
       </c>
@@ -5659,7 +5728,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>358</v>
       </c>
@@ -5667,7 +5736,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>359</v>
       </c>
@@ -5675,7 +5744,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>360</v>
       </c>
@@ -5683,7 +5752,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>361</v>
       </c>
@@ -5691,7 +5760,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>362</v>
       </c>
@@ -5699,7 +5768,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
         <v>363</v>
       </c>
@@ -5707,7 +5776,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>364</v>
       </c>
@@ -5715,7 +5784,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>365</v>
       </c>
@@ -5723,7 +5792,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>366</v>
       </c>
@@ -5731,7 +5800,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
@@ -5739,7 +5808,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>368</v>
       </c>
@@ -5747,7 +5816,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>369</v>
       </c>
@@ -5755,7 +5824,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>370</v>
       </c>
@@ -5763,7 +5832,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
         <v>371</v>
       </c>
@@ -5771,7 +5840,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>372</v>
       </c>
@@ -5779,7 +5848,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
         <v>373</v>
       </c>
@@ -5787,7 +5856,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>374</v>
       </c>
@@ -5795,7 +5864,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
         <v>375</v>
       </c>
@@ -5803,7 +5872,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>376</v>
       </c>
@@ -5811,7 +5880,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
         <v>377</v>
       </c>
@@ -5819,7 +5888,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>378</v>
       </c>
@@ -5827,7 +5896,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>379</v>
       </c>
@@ -5835,7 +5904,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>380</v>
       </c>
@@ -5843,7 +5912,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
         <v>381</v>
       </c>
@@ -5851,7 +5920,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>382</v>
       </c>
@@ -5859,7 +5928,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>383</v>
       </c>
@@ -5867,7 +5936,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>384</v>
       </c>
@@ -5875,7 +5944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>385</v>
       </c>
@@ -5883,7 +5952,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>386</v>
       </c>
@@ -5891,7 +5960,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
         <v>387</v>
       </c>
@@ -5899,7 +5968,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>388</v>
       </c>
@@ -5907,7 +5976,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>389</v>
       </c>
@@ -5915,7 +5984,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>390</v>
       </c>
@@ -5923,7 +5992,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>391</v>
       </c>
@@ -5931,7 +6000,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>392</v>
       </c>
@@ -5939,7 +6008,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>393</v>
       </c>
@@ -5947,7 +6016,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>394</v>
       </c>
@@ -5955,7 +6024,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>395</v>
       </c>
@@ -5963,7 +6032,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>396</v>
       </c>
@@ -5971,7 +6040,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
         <v>397</v>
       </c>
@@ -5979,7 +6048,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>398</v>
       </c>
@@ -5987,7 +6056,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
         <v>399</v>
       </c>
@@ -5995,7 +6064,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>400</v>
       </c>
@@ -6003,7 +6072,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
         <v>401</v>
       </c>
@@ -6011,7 +6080,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>402</v>
       </c>
@@ -6019,7 +6088,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="4" t="s">
         <v>403</v>
       </c>
@@ -6027,7 +6096,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>404</v>
       </c>
@@ -6035,7 +6104,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>405</v>
       </c>
@@ -6043,7 +6112,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>406</v>
       </c>
@@ -6051,7 +6120,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>407</v>
       </c>
@@ -6059,7 +6128,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>408</v>
       </c>
@@ -6067,7 +6136,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="4" t="s">
         <v>409</v>
       </c>
@@ -6075,7 +6144,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>410</v>
       </c>
@@ -6083,7 +6152,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="4" t="s">
         <v>411</v>
       </c>
@@ -6091,7 +6160,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
         <v>412</v>
       </c>
@@ -6099,7 +6168,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="4" t="s">
         <v>413</v>
       </c>
@@ -6107,7 +6176,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>414</v>
       </c>
@@ -6115,7 +6184,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="4" t="s">
         <v>415</v>
       </c>
@@ -6123,7 +6192,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>416</v>
       </c>
@@ -6131,7 +6200,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="4" t="s">
         <v>417</v>
       </c>
@@ -6139,7 +6208,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>418</v>
       </c>
@@ -6147,7 +6216,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="4" t="s">
         <v>419</v>
       </c>
@@ -6155,7 +6224,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>420</v>
       </c>
@@ -6163,7 +6232,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="4" t="s">
         <v>421</v>
       </c>
@@ -6171,7 +6240,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>422</v>
       </c>
@@ -6179,7 +6248,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>0</v>
       </c>
@@ -6187,7 +6256,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>423</v>
       </c>
@@ -6195,7 +6264,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="4" t="s">
         <v>424</v>
       </c>
@@ -6203,7 +6272,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>425</v>
       </c>
@@ -6211,7 +6280,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="4" t="s">
         <v>426</v>
       </c>
@@ -6219,7 +6288,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>427</v>
       </c>
@@ -6227,7 +6296,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" s="4" t="s">
         <v>428</v>
       </c>
@@ -6235,7 +6304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>429</v>
       </c>
@@ -6243,7 +6312,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="4" t="s">
         <v>430</v>
       </c>
@@ -6251,7 +6320,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>431</v>
       </c>
@@ -6259,7 +6328,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
         <v>432</v>
       </c>
@@ -6267,7 +6336,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>433</v>
       </c>
@@ -6275,7 +6344,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
         <v>434</v>
       </c>
@@ -6283,7 +6352,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>435</v>
       </c>
@@ -6291,7 +6360,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="4" t="s">
         <v>436</v>
       </c>
@@ -6299,7 +6368,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>437</v>
       </c>
@@ -6307,7 +6376,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="4" t="s">
         <v>438</v>
       </c>
@@ -6315,7 +6384,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>439</v>
       </c>
@@ -6323,7 +6392,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="4" t="s">
         <v>440</v>
       </c>
@@ -6331,7 +6400,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>441</v>
       </c>
@@ -6339,7 +6408,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
         <v>442</v>
       </c>
@@ -6347,7 +6416,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>443</v>
       </c>
@@ -6355,7 +6424,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="4" t="s">
         <v>444</v>
       </c>
@@ -6363,7 +6432,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>445</v>
       </c>
@@ -6371,7 +6440,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
         <v>446</v>
       </c>
@@ -6379,7 +6448,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
         <v>447</v>
       </c>
@@ -6387,7 +6456,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="4" t="s">
         <v>448</v>
       </c>
@@ -6395,7 +6464,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>449</v>
       </c>
@@ -6403,7 +6472,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="4" t="s">
         <v>450</v>
       </c>
@@ -6411,7 +6480,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>451</v>
       </c>
@@ -6419,7 +6488,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
         <v>452</v>
       </c>
@@ -6427,7 +6496,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>453</v>
       </c>
@@ -6435,7 +6504,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="4" t="s">
         <v>454</v>
       </c>
@@ -6443,7 +6512,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>455</v>
       </c>
@@ -6451,7 +6520,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="4" t="s">
         <v>456</v>
       </c>
@@ -6459,7 +6528,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>457</v>
       </c>
@@ -6467,7 +6536,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="4" t="s">
         <v>458</v>
       </c>
@@ -6475,7 +6544,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>459</v>
       </c>
@@ -6483,7 +6552,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="4" t="s">
         <v>460</v>
       </c>
@@ -6491,7 +6560,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>461</v>
       </c>
@@ -6499,7 +6568,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="4" t="s">
         <v>462</v>
       </c>
@@ -6507,7 +6576,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>463</v>
       </c>
@@ -6515,7 +6584,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
         <v>464</v>
       </c>
@@ -6523,7 +6592,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>465</v>
       </c>
@@ -6531,7 +6600,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="4" t="s">
         <v>466</v>
       </c>
@@ -6539,7 +6608,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>467</v>
       </c>
@@ -6547,7 +6616,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="4" t="s">
         <v>468</v>
       </c>
@@ -6555,7 +6624,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>469</v>
       </c>
@@ -6563,7 +6632,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="4" t="s">
         <v>470</v>
       </c>
@@ -6571,7 +6640,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>471</v>
       </c>
@@ -6579,7 +6648,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
         <v>472</v>
       </c>
@@ -6587,7 +6656,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>473</v>
       </c>
@@ -6595,7 +6664,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="4" t="s">
         <v>474</v>
       </c>
@@ -6603,7 +6672,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>475</v>
       </c>
@@ -6611,7 +6680,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="4" t="s">
         <v>476</v>
       </c>
@@ -6619,7 +6688,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>477</v>
       </c>
@@ -6627,7 +6696,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="4" t="s">
         <v>478</v>
       </c>
@@ -6635,7 +6704,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>479</v>
       </c>
@@ -6643,7 +6712,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="4" t="s">
         <v>480</v>
       </c>
@@ -6651,7 +6720,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
         <v>481</v>
       </c>
@@ -6659,7 +6728,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="4" t="s">
         <v>482</v>
       </c>
@@ -6667,7 +6736,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>483</v>
       </c>
@@ -6675,7 +6744,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="4" t="s">
         <v>484</v>
       </c>
@@ -6683,7 +6752,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>485</v>
       </c>
@@ -6691,7 +6760,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="4" t="s">
         <v>486</v>
       </c>
@@ -6699,7 +6768,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>487</v>
       </c>
@@ -6707,7 +6776,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="4" t="s">
         <v>488</v>
       </c>
@@ -6715,7 +6784,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>489</v>
       </c>
@@ -6723,7 +6792,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="4" t="s">
         <v>490</v>
       </c>
@@ -6731,7 +6800,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>491</v>
       </c>
@@ -6739,7 +6808,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" s="4" t="s">
         <v>492</v>
       </c>
@@ -6747,7 +6816,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>493</v>
       </c>
@@ -6755,7 +6824,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" s="4" t="s">
         <v>494</v>
       </c>
@@ -6763,7 +6832,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>495</v>
       </c>
@@ -6771,7 +6840,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" s="4" t="s">
         <v>496</v>
       </c>
@@ -6779,7 +6848,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>497</v>
       </c>
@@ -6787,7 +6856,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" s="4" t="s">
         <v>498</v>
       </c>
@@ -6795,7 +6864,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>499</v>
       </c>
@@ -6803,7 +6872,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="4" t="s">
         <v>500</v>
       </c>
@@ -6811,7 +6880,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>501</v>
       </c>
@@ -6819,7 +6888,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="4" t="s">
         <v>502</v>
       </c>
@@ -6827,7 +6896,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>503</v>
       </c>
@@ -6835,7 +6904,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" s="4" t="s">
         <v>504</v>
       </c>
@@ -6843,7 +6912,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
         <v>505</v>
       </c>
@@ -6851,7 +6920,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="4" t="s">
         <v>506</v>
       </c>
@@ -6859,7 +6928,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
         <v>507</v>
       </c>
@@ -6867,7 +6936,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" s="4" t="s">
         <v>508</v>
       </c>
@@ -6875,7 +6944,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>509</v>
       </c>
@@ -6883,7 +6952,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="4" t="s">
         <v>510</v>
       </c>
@@ -6891,7 +6960,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>511</v>
       </c>
@@ -6899,7 +6968,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" s="4" t="s">
         <v>512</v>
       </c>
@@ -6907,7 +6976,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>513</v>
       </c>
@@ -6915,7 +6984,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" s="4" t="s">
         <v>514</v>
       </c>
@@ -6923,7 +6992,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
         <v>515</v>
       </c>
@@ -6931,7 +7000,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" s="4" t="s">
         <v>516</v>
       </c>
@@ -6939,7 +7008,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>517</v>
       </c>
@@ -6947,7 +7016,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" s="4" t="s">
         <v>518</v>
       </c>
@@ -6955,7 +7024,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
         <v>519</v>
       </c>
@@ -6963,7 +7032,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="4" t="s">
         <v>520</v>
       </c>
@@ -6971,7 +7040,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>521</v>
       </c>
@@ -6979,7 +7048,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" s="4" t="s">
         <v>522</v>
       </c>
@@ -6987,7 +7056,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
         <v>523</v>
       </c>
@@ -6995,7 +7064,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="4" t="s">
         <v>524</v>
       </c>
@@ -7003,7 +7072,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
         <v>525</v>
       </c>
@@ -7011,7 +7080,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="4" t="s">
         <v>526</v>
       </c>
@@ -7019,7 +7088,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
         <v>527</v>
       </c>
@@ -7027,7 +7096,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="4" t="s">
         <v>528</v>
       </c>
@@ -7035,7 +7104,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
         <v>529</v>
       </c>
@@ -7043,7 +7112,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="4" t="s">
         <v>530</v>
       </c>
@@ -7051,7 +7120,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
         <v>531</v>
       </c>
@@ -7059,7 +7128,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="4" t="s">
         <v>532</v>
       </c>
@@ -7067,7 +7136,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
         <v>533</v>
       </c>
@@ -7075,7 +7144,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="4" t="s">
         <v>534</v>
       </c>
@@ -7083,7 +7152,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
         <v>535</v>
       </c>
@@ -7091,7 +7160,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="4" t="s">
         <v>536</v>
       </c>
@@ -7099,7 +7168,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
         <v>537</v>
       </c>
@@ -7107,7 +7176,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="4" t="s">
         <v>538</v>
       </c>
@@ -7115,7 +7184,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
         <v>539</v>
       </c>
@@ -7123,7 +7192,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="4" t="s">
         <v>540</v>
       </c>
@@ -7131,7 +7200,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>541</v>
       </c>
@@ -7139,7 +7208,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="4" t="s">
         <v>542</v>
       </c>
@@ -7147,7 +7216,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>543</v>
       </c>
@@ -7155,7 +7224,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" s="4" t="s">
         <v>544</v>
       </c>
@@ -7163,7 +7232,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
         <v>545</v>
       </c>
@@ -7171,7 +7240,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="4" t="s">
         <v>546</v>
       </c>
@@ -7179,7 +7248,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
         <v>547</v>
       </c>
@@ -7187,7 +7256,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="4" t="s">
         <v>548</v>
       </c>
@@ -7195,7 +7264,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
         <v>549</v>
       </c>
@@ -7203,7 +7272,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="4" t="s">
         <v>550</v>
       </c>
@@ -7211,7 +7280,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>551</v>
       </c>
@@ -7219,7 +7288,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="4" t="s">
         <v>552</v>
       </c>
@@ -7227,7 +7296,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
         <v>553</v>
       </c>
@@ -7235,7 +7304,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="4" t="s">
         <v>554</v>
       </c>
@@ -7243,7 +7312,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
         <v>555</v>
       </c>
@@ -7251,7 +7320,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="4" t="s">
         <v>556</v>
       </c>
@@ -7259,7 +7328,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
         <v>557</v>
       </c>
@@ -7267,7 +7336,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="4" t="s">
         <v>558</v>
       </c>
@@ -7275,7 +7344,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
         <v>559</v>
       </c>
@@ -7283,7 +7352,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="4" t="s">
         <v>560</v>
       </c>
@@ -7291,7 +7360,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
         <v>561</v>
       </c>
@@ -7299,7 +7368,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="4" t="s">
         <v>562</v>
       </c>
@@ -7307,7 +7376,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="4" t="s">
         <v>563</v>
       </c>
@@ -7315,7 +7384,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="4" t="s">
         <v>564</v>
       </c>
@@ -7323,7 +7392,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="4" t="s">
         <v>565</v>
       </c>
@@ -7331,7 +7400,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="4" t="s">
         <v>566</v>
       </c>
@@ -7339,7 +7408,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
         <v>567</v>
       </c>
@@ -7347,7 +7416,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="4" t="s">
         <v>568</v>
       </c>
@@ -7355,7 +7424,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
         <v>569</v>
       </c>
@@ -7363,7 +7432,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="4" t="s">
         <v>570</v>
       </c>
@@ -7371,7 +7440,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
         <v>571</v>
       </c>
@@ -7379,7 +7448,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="4" t="s">
         <v>572</v>
       </c>
@@ -7387,7 +7456,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
         <v>573</v>
       </c>
@@ -7395,7 +7464,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="4" t="s">
         <v>574</v>
       </c>
@@ -7403,7 +7472,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
         <v>575</v>
       </c>
@@ -7411,7 +7480,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="4" t="s">
         <v>576</v>
       </c>
@@ -7419,7 +7488,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
         <v>577</v>
       </c>
@@ -7427,7 +7496,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="4" t="s">
         <v>578</v>
       </c>
@@ -7435,7 +7504,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
         <v>579</v>
       </c>
@@ -7443,7 +7512,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="4" t="s">
         <v>580</v>
       </c>
@@ -7451,7 +7520,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
         <v>581</v>
       </c>
@@ -7459,7 +7528,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="4" t="s">
         <v>582</v>
       </c>
@@ -7467,7 +7536,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
         <v>583</v>
       </c>
@@ -7475,7 +7544,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="4" t="s">
         <v>584</v>
       </c>
@@ -7483,7 +7552,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
         <v>585</v>
       </c>
@@ -7491,7 +7560,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="4" t="s">
         <v>586</v>
       </c>
@@ -7499,7 +7568,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
         <v>587</v>
       </c>
@@ -7507,7 +7576,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="4" t="s">
         <v>588</v>
       </c>
@@ -7515,7 +7584,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
         <v>589</v>
       </c>
@@ -7523,7 +7592,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="4" t="s">
         <v>590</v>
       </c>
@@ -7531,7 +7600,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
         <v>591</v>
       </c>
@@ -7539,7 +7608,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="4" t="s">
         <v>592</v>
       </c>
@@ -7547,7 +7616,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
         <v>593</v>
       </c>
@@ -7555,7 +7624,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="4" t="s">
         <v>594</v>
       </c>
@@ -7563,7 +7632,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
         <v>595</v>
       </c>
@@ -7571,7 +7640,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="4" t="s">
         <v>596</v>
       </c>
@@ -7579,7 +7648,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
         <v>597</v>
       </c>
@@ -7587,7 +7656,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="4" t="s">
         <v>598</v>
       </c>
@@ -7595,7 +7664,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
         <v>599</v>
       </c>
@@ -7603,7 +7672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="4" t="s">
         <v>600</v>
       </c>
@@ -7611,7 +7680,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" s="4" t="s">
         <v>601</v>
       </c>
@@ -7619,7 +7688,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" s="4" t="s">
         <v>602</v>
       </c>
@@ -7627,7 +7696,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" s="4" t="s">
         <v>603</v>
       </c>
@@ -7635,7 +7704,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" s="4" t="s">
         <v>604</v>
       </c>
@@ -7643,7 +7712,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" s="4" t="s">
         <v>605</v>
       </c>
@@ -7651,7 +7720,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" s="4" t="s">
         <v>606</v>
       </c>
@@ -7659,7 +7728,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" s="4" t="s">
         <v>607</v>
       </c>
@@ -7667,7 +7736,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" s="4" t="s">
         <v>608</v>
       </c>
@@ -7675,7 +7744,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" s="4" t="s">
         <v>609</v>
       </c>
@@ -7683,7 +7752,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" s="4" t="s">
         <v>610</v>
       </c>
@@ -7691,7 +7760,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" s="4" t="s">
         <v>611</v>
       </c>
@@ -7699,7 +7768,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" s="4" t="s">
         <v>612</v>
       </c>
@@ -7707,7 +7776,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" s="4" t="s">
         <v>613</v>
       </c>
@@ -7715,7 +7784,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" s="4" t="s">
         <v>36</v>
       </c>
@@ -7723,7 +7792,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" s="4" t="s">
         <v>614</v>
       </c>
@@ -7731,7 +7800,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" s="4" t="s">
         <v>615</v>
       </c>
@@ -7739,7 +7808,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" s="4" t="s">
         <v>616</v>
       </c>
@@ -7747,7 +7816,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" s="4" t="s">
         <v>617</v>
       </c>
@@ -7755,7 +7824,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" s="4" t="s">
         <v>618</v>
       </c>
@@ -7763,7 +7832,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" s="4" t="s">
         <v>619</v>
       </c>
@@ -7771,7 +7840,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" s="4" t="s">
         <v>620</v>
       </c>
@@ -7779,7 +7848,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" s="4" t="s">
         <v>621</v>
       </c>
@@ -7787,7 +7856,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" s="4" t="s">
         <v>622</v>
       </c>
@@ -7795,7 +7864,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" s="4" t="s">
         <v>623</v>
       </c>
@@ -7803,7 +7872,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" s="4" t="s">
         <v>624</v>
       </c>
@@ -7811,7 +7880,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" s="4" t="s">
         <v>625</v>
       </c>
@@ -7819,7 +7888,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" s="4" t="s">
         <v>626</v>
       </c>
@@ -7827,7 +7896,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" s="4" t="s">
         <v>627</v>
       </c>
@@ -7835,7 +7904,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" s="4" t="s">
         <v>628</v>
       </c>
@@ -7843,7 +7912,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" s="4" t="s">
         <v>629</v>
       </c>
@@ -7851,7 +7920,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" s="4" t="s">
         <v>630</v>
       </c>
@@ -7859,7 +7928,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" s="4" t="s">
         <v>631</v>
       </c>
@@ -7867,7 +7936,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" s="4" t="s">
         <v>632</v>
       </c>
@@ -7875,7 +7944,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" s="4" t="s">
         <v>633</v>
       </c>
@@ -7883,7 +7952,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" s="4" t="s">
         <v>634</v>
       </c>
@@ -7891,7 +7960,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" s="4" t="s">
         <v>635</v>
       </c>
@@ -7899,7 +7968,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" s="4" t="s">
         <v>636</v>
       </c>
@@ -7907,7 +7976,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" s="4" t="s">
         <v>637</v>
       </c>
@@ -7915,7 +7984,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" s="4" t="s">
         <v>638</v>
       </c>
@@ -7923,7 +7992,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" s="4" t="s">
         <v>639</v>
       </c>
@@ -7931,7 +8000,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" s="4" t="s">
         <v>640</v>
       </c>
@@ -7939,7 +8008,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" s="4" t="s">
         <v>641</v>
       </c>
@@ -7947,7 +8016,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" s="4" t="s">
         <v>642</v>
       </c>
@@ -7955,7 +8024,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" s="4" t="s">
         <v>643</v>
       </c>
@@ -7963,7 +8032,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" s="4" t="s">
         <v>644</v>
       </c>
@@ -7971,7 +8040,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" s="4" t="s">
         <v>645</v>
       </c>
@@ -7979,7 +8048,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" s="4" t="s">
         <v>646</v>
       </c>
@@ -7987,7 +8056,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" s="4" t="s">
         <v>647</v>
       </c>
@@ -7995,7 +8064,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" s="4" t="s">
         <v>648</v>
       </c>
@@ -8003,7 +8072,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" s="4" t="s">
         <v>649</v>
       </c>
@@ -8011,7 +8080,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" s="4" t="s">
         <v>650</v>
       </c>
@@ -8019,7 +8088,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" s="4" t="s">
         <v>651</v>
       </c>
@@ -8027,7 +8096,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" s="4" t="s">
         <v>652</v>
       </c>
